--- a/test/testExcel.xlsx
+++ b/test/testExcel.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
-    <t>해더1-1721032424</t>
+    <t>해더1-1722242060</t>
   </si>
   <si>
     <t>해더2</t>

--- a/test/testExcel.xlsx
+++ b/test/testExcel.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="설정없음" sheetId="1" r:id="rId4"/>
+    <sheet name="기본설정" sheetId="1" r:id="rId4"/>
     <sheet name="컬럼너비만 설정" sheetId="2" r:id="rId5"/>
     <sheet name="복잡하게 설정" sheetId="3" r:id="rId6"/>
+    <sheet name="오토링크 설정" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -17,9 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
-  <si>
-    <t>해더1-1722242060</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+  <si>
+    <t>해더1-1722325964</t>
   </si>
   <si>
     <t>해더2</t>
@@ -58,169 +59,175 @@
     <t>해더13</t>
   </si>
   <si>
+    <t>http://www.mins01.com/</t>
+  </si>
+  <si>
+    <t>test@mins01.com</t>
+  </si>
+  <si>
+    <t>해더:2-3</t>
+  </si>
+  <si>
+    <t>해더:2-4</t>
+  </si>
+  <si>
+    <t>해더:2-5</t>
+  </si>
+  <si>
+    <t>해더:2-6</t>
+  </si>
+  <si>
+    <t>해더:2-7</t>
+  </si>
+  <si>
+    <t>해더:2-8</t>
+  </si>
+  <si>
+    <t>해더:2-9</t>
+  </si>
+  <si>
+    <t>해더:2-10</t>
+  </si>
+  <si>
+    <t>해더:2-11</t>
+  </si>
+  <si>
+    <t>해더:2-12</t>
+  </si>
+  <si>
+    <t>해더:2-13</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>데이터4</t>
+  </si>
+  <si>
+    <t>오른쪽 정렬</t>
+  </si>
+  <si>
+    <t>데이터6</t>
+  </si>
+  <si>
+    <t>데이터7</t>
+  </si>
+  <si>
+    <t>데이터8</t>
+  </si>
+  <si>
+    <t>데이터9</t>
+  </si>
+  <si>
+    <t>데이터10</t>
+  </si>
+  <si>
+    <t>데이터11</t>
+  </si>
+  <si>
+    <t>데이터12</t>
+  </si>
+  <si>
+    <t>데이터13</t>
+  </si>
+  <si>
+    <t>풋터1</t>
+  </si>
+  <si>
+    <t>풋터2</t>
+  </si>
+  <si>
+    <t>풋터3</t>
+  </si>
+  <si>
+    <t>풋터4</t>
+  </si>
+  <si>
+    <t>풋터5</t>
+  </si>
+  <si>
+    <t>풋터6</t>
+  </si>
+  <si>
+    <t>풋터7</t>
+  </si>
+  <si>
+    <t>풋터8</t>
+  </si>
+  <si>
+    <t>풋터9</t>
+  </si>
+  <si>
+    <t>풋터10</t>
+  </si>
+  <si>
+    <t>풋터11</t>
+  </si>
+  <si>
+    <t>풋터12</t>
+  </si>
+  <si>
+    <t>풋터13</t>
+  </si>
+  <si>
+    <t>풋터:2-3</t>
+  </si>
+  <si>
+    <t>풋터:2-4</t>
+  </si>
+  <si>
+    <t>풋터:2-5</t>
+  </si>
+  <si>
+    <t>풋터:2-6</t>
+  </si>
+  <si>
+    <t>풋터:2-7</t>
+  </si>
+  <si>
+    <t>풋터:2-8</t>
+  </si>
+  <si>
+    <t>풋터:2-9</t>
+  </si>
+  <si>
+    <t>풋터:2-10</t>
+  </si>
+  <si>
+    <t>풋터:2-11</t>
+  </si>
+  <si>
+    <t>풋터:2-12</t>
+  </si>
+  <si>
+    <t>풋터:2-13</t>
+  </si>
+  <si>
     <t>해더:2-1</t>
   </si>
   <si>
     <t>해더:2-2</t>
   </si>
   <si>
-    <t>해더:2-3</t>
-  </si>
-  <si>
-    <t>해더:2-4</t>
-  </si>
-  <si>
-    <t>해더:2-5</t>
-  </si>
-  <si>
-    <t>해더:2-6</t>
-  </si>
-  <si>
-    <t>해더:2-7</t>
-  </si>
-  <si>
-    <t>해더:2-8</t>
-  </si>
-  <si>
-    <t>해더:2-9</t>
-  </si>
-  <si>
-    <t>해더:2-10</t>
-  </si>
-  <si>
-    <t>해더:2-11</t>
-  </si>
-  <si>
-    <t>해더:2-12</t>
-  </si>
-  <si>
-    <t>해더:2-13</t>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>너비설정없음</t>
+  </si>
+  <si>
+    <t>설정없음</t>
   </si>
   <si>
     <t>데이터1</t>
   </si>
   <si>
-    <t>2024-07-15</t>
-  </si>
-  <si>
-    <t>데이터4</t>
-  </si>
-  <si>
-    <t>오른쪽 정렬</t>
-  </si>
-  <si>
-    <t>데이터6</t>
-  </si>
-  <si>
-    <t>데이터7</t>
-  </si>
-  <si>
-    <t>데이터8</t>
-  </si>
-  <si>
-    <t>데이터9</t>
-  </si>
-  <si>
-    <t>데이터10</t>
-  </si>
-  <si>
-    <t>데이터11</t>
-  </si>
-  <si>
-    <t>데이터12</t>
-  </si>
-  <si>
-    <t>데이터13</t>
-  </si>
-  <si>
-    <t>풋터1</t>
-  </si>
-  <si>
-    <t>풋터2</t>
-  </si>
-  <si>
-    <t>풋터3</t>
-  </si>
-  <si>
-    <t>풋터4</t>
-  </si>
-  <si>
-    <t>풋터5</t>
-  </si>
-  <si>
-    <t>풋터6</t>
-  </si>
-  <si>
-    <t>풋터7</t>
-  </si>
-  <si>
-    <t>풋터8</t>
-  </si>
-  <si>
-    <t>풋터9</t>
-  </si>
-  <si>
-    <t>풋터10</t>
-  </si>
-  <si>
-    <t>풋터11</t>
-  </si>
-  <si>
-    <t>풋터12</t>
-  </si>
-  <si>
-    <t>풋터13</t>
+    <t>설정이 없으면 기본너비 사용</t>
   </si>
   <si>
     <t>풋터:2-1</t>
   </si>
   <si>
     <t>풋터:2-2</t>
-  </si>
-  <si>
-    <t>풋터:2-3</t>
-  </si>
-  <si>
-    <t>풋터:2-4</t>
-  </si>
-  <si>
-    <t>풋터:2-5</t>
-  </si>
-  <si>
-    <t>풋터:2-6</t>
-  </si>
-  <si>
-    <t>풋터:2-7</t>
-  </si>
-  <si>
-    <t>풋터:2-8</t>
-  </si>
-  <si>
-    <t>풋터:2-9</t>
-  </si>
-  <si>
-    <t>풋터:2-10</t>
-  </si>
-  <si>
-    <t>풋터:2-11</t>
-  </si>
-  <si>
-    <t>풋터:2-12</t>
-  </si>
-  <si>
-    <t>풋터:2-13</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>너비설정없음</t>
-  </si>
-  <si>
-    <t>설정없음</t>
-  </si>
-  <si>
-    <t>설정이 없으면 기본너비 사용</t>
   </si>
   <si>
     <t>해더컬럼스타일</t>
@@ -242,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -250,6 +257,15 @@
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -327,14 +343,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
@@ -345,11 +362,15 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,129 +786,133 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2">
-        <v>22222222</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>63</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="B4" r:id="rId_hyperlink_2"/>
+  </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -961,10 +986,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1014,7 +1039,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2">
         <v>30</v>
@@ -1029,180 +1054,180 @@
         <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2">
         <v>22222222</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2">
         <v>22222222</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1258,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1274,11 +1299,11 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
+      <c r="A2" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1315,11 +1340,11 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1332,120 +1357,120 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
+      <c r="A4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1456,103 +1481,103 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="9" t="s">
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="I9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="M9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1562,4 +1587,262 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="B2" r:id="rId_hyperlink_2"/>
+    <hyperlink ref="A4" r:id="rId_hyperlink_3"/>
+    <hyperlink ref="B4" r:id="rId_hyperlink_4"/>
+    <hyperlink ref="A6" r:id="rId_hyperlink_5"/>
+    <hyperlink ref="B6" r:id="rId_hyperlink_6"/>
+  </hyperlinks>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
 </file>
--- a/test/testExcel.xlsx
+++ b/test/testExcel.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
-    <t>해더1-1722325964</t>
+    <t>해더1-1722391550</t>
   </si>
   <si>
     <t>해더2</t>
@@ -770,9 +770,7 @@
       <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
-        <v>4</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2">
         <v>5</v>
       </c>
@@ -909,6 +907,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId_hyperlink_1"/>
     <hyperlink ref="B4" r:id="rId_hyperlink_2"/>

--- a/test/testExcel.xlsx
+++ b/test/testExcel.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
-    <t>해더1-1722391550</t>
+    <t>해더1-1722392544</t>
   </si>
   <si>
     <t>해더2</t>

--- a/test/testExcel.xlsx
+++ b/test/testExcel.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
-    <t>해더1-1722392544</t>
+    <t>해더1-1722393259</t>
   </si>
   <si>
     <t>해더2</t>

--- a/test/testExcel.xlsx
+++ b/test/testExcel.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
-    <t>해더1-1722393259</t>
+    <t>해더1-1722393695</t>
   </si>
   <si>
     <t>해더2</t>
@@ -104,6 +104,117 @@
     <t>데이터4</t>
   </si>
   <si>
+    <t>데이터8</t>
+  </si>
+  <si>
+    <t>데이터9</t>
+  </si>
+  <si>
+    <t>데이터10</t>
+  </si>
+  <si>
+    <t>데이터11</t>
+  </si>
+  <si>
+    <t>데이터12</t>
+  </si>
+  <si>
+    <t>데이터13</t>
+  </si>
+  <si>
+    <t>풋터1</t>
+  </si>
+  <si>
+    <t>풋터2</t>
+  </si>
+  <si>
+    <t>풋터3</t>
+  </si>
+  <si>
+    <t>풋터4</t>
+  </si>
+  <si>
+    <t>풋터5</t>
+  </si>
+  <si>
+    <t>풋터6</t>
+  </si>
+  <si>
+    <t>풋터7</t>
+  </si>
+  <si>
+    <t>풋터8</t>
+  </si>
+  <si>
+    <t>풋터9</t>
+  </si>
+  <si>
+    <t>풋터10</t>
+  </si>
+  <si>
+    <t>풋터11</t>
+  </si>
+  <si>
+    <t>풋터12</t>
+  </si>
+  <si>
+    <t>풋터13</t>
+  </si>
+  <si>
+    <t>풋터:2-3</t>
+  </si>
+  <si>
+    <t>풋터:2-4</t>
+  </si>
+  <si>
+    <t>풋터:2-5</t>
+  </si>
+  <si>
+    <t>풋터:2-6</t>
+  </si>
+  <si>
+    <t>풋터:2-7</t>
+  </si>
+  <si>
+    <t>풋터:2-8</t>
+  </si>
+  <si>
+    <t>풋터:2-9</t>
+  </si>
+  <si>
+    <t>풋터:2-10</t>
+  </si>
+  <si>
+    <t>풋터:2-11</t>
+  </si>
+  <si>
+    <t>풋터:2-12</t>
+  </si>
+  <si>
+    <t>풋터:2-13</t>
+  </si>
+  <si>
+    <t>해더:2-1</t>
+  </si>
+  <si>
+    <t>해더:2-2</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>너비설정없음</t>
+  </si>
+  <si>
+    <t>설정없음</t>
+  </si>
+  <si>
+    <t>데이터1</t>
+  </si>
+  <si>
+    <t>설정이 없으면 기본너비 사용</t>
+  </si>
+  <si>
     <t>오른쪽 정렬</t>
   </si>
   <si>
@@ -111,117 +222,6 @@
   </si>
   <si>
     <t>데이터7</t>
-  </si>
-  <si>
-    <t>데이터8</t>
-  </si>
-  <si>
-    <t>데이터9</t>
-  </si>
-  <si>
-    <t>데이터10</t>
-  </si>
-  <si>
-    <t>데이터11</t>
-  </si>
-  <si>
-    <t>데이터12</t>
-  </si>
-  <si>
-    <t>데이터13</t>
-  </si>
-  <si>
-    <t>풋터1</t>
-  </si>
-  <si>
-    <t>풋터2</t>
-  </si>
-  <si>
-    <t>풋터3</t>
-  </si>
-  <si>
-    <t>풋터4</t>
-  </si>
-  <si>
-    <t>풋터5</t>
-  </si>
-  <si>
-    <t>풋터6</t>
-  </si>
-  <si>
-    <t>풋터7</t>
-  </si>
-  <si>
-    <t>풋터8</t>
-  </si>
-  <si>
-    <t>풋터9</t>
-  </si>
-  <si>
-    <t>풋터10</t>
-  </si>
-  <si>
-    <t>풋터11</t>
-  </si>
-  <si>
-    <t>풋터12</t>
-  </si>
-  <si>
-    <t>풋터13</t>
-  </si>
-  <si>
-    <t>풋터:2-3</t>
-  </si>
-  <si>
-    <t>풋터:2-4</t>
-  </si>
-  <si>
-    <t>풋터:2-5</t>
-  </si>
-  <si>
-    <t>풋터:2-6</t>
-  </si>
-  <si>
-    <t>풋터:2-7</t>
-  </si>
-  <si>
-    <t>풋터:2-8</t>
-  </si>
-  <si>
-    <t>풋터:2-9</t>
-  </si>
-  <si>
-    <t>풋터:2-10</t>
-  </si>
-  <si>
-    <t>풋터:2-11</t>
-  </si>
-  <si>
-    <t>풋터:2-12</t>
-  </si>
-  <si>
-    <t>풋터:2-13</t>
-  </si>
-  <si>
-    <t>해더:2-1</t>
-  </si>
-  <si>
-    <t>해더:2-2</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>너비설정없음</t>
-  </si>
-  <si>
-    <t>설정없음</t>
-  </si>
-  <si>
-    <t>데이터1</t>
-  </si>
-  <si>
-    <t>설정이 없으면 기본너비 사용</t>
   </si>
   <si>
     <t>풋터:2-1</t>
@@ -776,9 +776,15 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="2">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -796,73 +802,67 @@
       <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -873,43 +873,44 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId_hyperlink_1"/>
@@ -988,10 +989,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1041,7 +1042,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2">
         <v>30</v>
@@ -1056,21 +1057,21 @@
         <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2">
         <v>22222222</v>
@@ -1079,39 +1080,39 @@
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2">
         <v>22222222</v>
@@ -1123,72 +1124,72 @@
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1199,37 +1200,37 @@
         <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1302,10 +1303,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -1368,31 +1369,31 @@
         <v>27</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1403,31 +1404,31 @@
         <v>27</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1438,31 +1439,31 @@
         <v>27</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1484,43 +1485,43 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1531,37 +1532,37 @@
         <v>69</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1725,72 +1726,72 @@
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1801,37 +1802,37 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/test/testExcel.xlsx
+++ b/test/testExcel.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
-    <t>해더1-1722393695</t>
+    <t>해더1-1722394321</t>
   </si>
   <si>
     <t>해더2</t>
